--- a/biology/Médecine/Jérôme_Bellefin/Jérôme_Bellefin.xlsx
+++ b/biology/Médecine/Jérôme_Bellefin/Jérôme_Bellefin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Bellefin</t>
+          <t>Jérôme_Bellefin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jérôme Bellefin, né le 27 décembre 1764 à Crémieu fils de Laurent Bellefin, marchand échevin de Crémieu et de Claudine Suzanne Plantier, et mort le 3 août 1835 à Montivilliers[1], est un chirurgien français qui participa à l'expédition vers les Terres australes que conduisit Nicolas Baudin au départ du Havre à compter du 19 octobre 1800. Installé à bord du Naturaliste[2], il atteignit la Nouvelle-Hollande (Australie) et Port Jackson, où il prit part à l'une des premières cérémonies de la franc-maçonnerie sur l'île-continent en 1802. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jérôme Bellefin, né le 27 décembre 1764 à Crémieu fils de Laurent Bellefin, marchand échevin de Crémieu et de Claudine Suzanne Plantier, et mort le 3 août 1835 à Montivilliers, est un chirurgien français qui participa à l'expédition vers les Terres australes que conduisit Nicolas Baudin au départ du Havre à compter du 19 octobre 1800. Installé à bord du Naturaliste, il atteignit la Nouvelle-Hollande (Australie) et Port Jackson, où il prit part à l'une des premières cérémonies de la franc-maçonnerie sur l'île-continent en 1802. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Bellefin</t>
+          <t>Jérôme_Bellefin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Son voyage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après le Voyage dans les quatre principales îles des mers d'Afrique publié en 1804 par Jean-Baptiste Bory de Saint-Vincent, qui écrit son nom Belfin, il était au départ de l'expédition l'un des quinze membres de l'état-major à bord du Naturaliste[2].
-Durant l'escale que fit ce voyage d'exploration scientifique à Tenerife fin 1800, il se rendit jusqu'à L'Orotave pour examiner un malade et fut séduit par ce lieu, dont il fit l'éloge à Bory de Saint-Vincent, qui ne put jamais le visiter. Plusieurs mois plus tard, alors que l'expédition relâchait à l'île de France en mars-avril 1801, il examina ce dernier à sa demande et fut alarmé par sa santé. Il lui fit un billet d'hôpital qui permit au naturaliste de se présenter à l'hospice de marine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le Voyage dans les quatre principales îles des mers d'Afrique publié en 1804 par Jean-Baptiste Bory de Saint-Vincent, qui écrit son nom Belfin, il était au départ de l'expédition l'un des quinze membres de l'état-major à bord du Naturaliste.
+Durant l'escale que fit ce voyage d'exploration scientifique à Tenerife fin 1800, il se rendit jusqu'à L'Orotave pour examiner un malade et fut séduit par ce lieu, dont il fit l'éloge à Bory de Saint-Vincent, qui ne put jamais le visiter. Plusieurs mois plus tard, alors que l'expédition relâchait à l'île de France en mars-avril 1801, il examina ce dernier à sa demande et fut alarmé par sa santé. Il lui fit un billet d'hôpital qui permit au naturaliste de se présenter à l'hospice de marine.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Bellefin</t>
+          <t>Jérôme_Bellefin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sa postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pointe d'une péninsule s'enfonçant dans la baie Shark, le cap Bellefin, en Australie-Occidentale, a été nommé en son honneur.
 </t>
